--- a/notebooks/folding/geometry/TRR_demonstrator/WBScanCell_Normals_Evaluation_WB306.xlsx
+++ b/notebooks/folding/geometry/TRR_demonstrator/WBScanCell_Normals_Evaluation_WB306.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,13 +444,23 @@
           <t>Angle between normals (degrees)</t>
         </is>
       </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Coord: normal vector scan</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.4202877750775318</v>
+        <v>0.4202898136369796</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>[0.         0.31802023 0.94808393]</t>
+        </is>
       </c>
     </row>
     <row r="3">
@@ -458,7 +468,12 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1.746433328969309</v>
+        <v>1.746427337404967</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>[-0.43617147  0.51976349  0.73457496]</t>
+        </is>
       </c>
     </row>
     <row r="4">
@@ -466,7 +481,12 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.163067648823029</v>
+        <v>0.1630676989240208</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>[-9.06280432e-04  1.33439476e-02  9.99910555e-01]</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -474,7 +494,12 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.6039429750415947</v>
+        <v>0.6039428534655938</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>[-6.33765013e-04  2.84389540e-01 -9.58708604e-01]</t>
+        </is>
       </c>
     </row>
     <row r="6">
@@ -482,7 +507,12 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1.771776811187822</v>
+        <v>1.771777786130546</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>[0.722527   0.29042097 0.62738376]</t>
+        </is>
       </c>
     </row>
     <row r="7">
@@ -490,7 +520,12 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.8110689682743579</v>
+        <v>0.8110555212955693</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>[-0.73290713 -0.27243498  0.623399  ]</t>
+        </is>
       </c>
     </row>
     <row r="8">
@@ -498,7 +533,12 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.5599240609539654</v>
+        <v>0.559923347602286</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>[0.         0.31570875 0.94885615]</t>
+        </is>
       </c>
     </row>
     <row r="9">
@@ -506,7 +546,12 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>1.003499783899349</v>
+        <v>1.003497847685942</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>[ 0.         -0.30835348  0.95127185]</t>
+        </is>
       </c>
     </row>
     <row r="10">
@@ -514,7 +559,12 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>1.88738943590009</v>
+        <v>1.887405605205275</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>[-0.7295924   0.25409659  0.63492508]</t>
+        </is>
       </c>
     </row>
     <row r="11">
@@ -522,7 +572,12 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>1.87721352135685</v>
+        <v>1.877216681045321</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>[ 0.72993042 -0.27409819  0.62615634]</t>
+        </is>
       </c>
     </row>
     <row r="12">
@@ -530,7 +585,12 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0.6323051174414951</v>
+        <v>0.6323109968505883</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>[ 6.54468149e-04 -2.83915167e-01 -9.58849180e-01]</t>
+        </is>
       </c>
     </row>
     <row r="13">
@@ -538,7 +598,12 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>2.486409304397389</v>
+        <v>2.486404314623541</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>[-0.7161322  -0.28489093  0.63717488]</t>
+        </is>
       </c>
     </row>
     <row r="14">
@@ -546,7 +611,12 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>3.884465661367553</v>
+        <v>3.884459959925173</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>[0.70064789 0.26004277 0.66443231]</t>
+        </is>
       </c>
     </row>
     <row r="15">
@@ -554,7 +624,12 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>1.458629813113679</v>
+        <v>1.458627817372756</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>[ 0.         -0.30078739  0.95369122]</t>
+        </is>
       </c>
     </row>
   </sheetData>
